--- a/Traduzido/PTBR/Lang/PTBR/Dialog/dialog.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Dialog/dialog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CCA37E-9E16-47BC-8BDD-BCA8EFD7F465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E503A8F-FE43-45F4-A3FF-694BD89D095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1680,39 +1680,6 @@
     <t>Here to spin the prize wheel, huh?</t>
   </si>
   <si>
-    <t xml:space="preserve">Não tenho nada para fazer.  
-Hã? O que você quer?  
-Você é um aventureiro, certo? Alguma novidade de longe?  
-A Liga Eterna? Nunca ouvi falar.  
-Nada supera uma boa e velha cerveja crim depois do trabalho.  
-Gatos... por que eles são tão fofos?  
-#aka? Nunca ouvi falar de você.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu gosto muito de economia.  
-Dinheiro e moeda são fundamentais para nossa sociedade.  
-Você tem boas ideias de investimento?  
-Moedas de platina são muito mais raras que as de ouro. Gaste-as com sabedoria.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gosto de falar sobre ciência.  
-A ciência em Eyth Terre era muito mais avançada que a nossa.  
-Em Eyth Terre, magia e ciência eram consideradas opostas.  
-Dizem que marionetes mecânicas estão fazendo o trabalho dos humanos no Novo Reino de Yerl.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gosto de viajar, já estive em muitos lugares.  
-Lumiest é a famosa cidade da arte.  
-As terras de North Tyris têm inúmeras ruínas e masmorras. Elas são chamadas de ruínas de Nefia.  
-Você nunca deve sair de casa sem um bom suprimento de comida.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenho interesse em assuntos mundiais.  
-Euderna é um poderoso império nos desertos do continente oriental.  
-Dizem que o Novo Reino de Yerl foi fundado por escravos que fugiram do império.  
-Zanan é um antigo reino que valoriza a história e a honra, mas aparentemente é um fantoche do império.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">A fé é a mais preciosa de todas.  
 Nossas vidas seriam sem sentido sem os deuses.  
 Dizem que as penas que caem das pequenas asas na cabeça da Deusa da Cura têm o poder de curar qualquer doença incurável.  
@@ -1722,47 +1689,9 @@
 Corre um boato de que Mani da Máquina foi, originalmente, humano.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Os Elea tentaram nos abandonar à própria sorte durante a Guerra dos Dez Anos.  
-Chegou a hora de nós, humanos, prosperarmos.  
-Não precisamos mais da ajuda dos Elea.  
-Queimem as velhas florestas!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os humanos precisam ser mais humildes. Devemos respeitar mais as raças mais antigas.  
-Os humanos já chamaram os Elea de sua mãe.  
-O povo das antigas florestas não gosta de lutar. Eles não querem interferir nem ser interferidos.  
-Por que não podemos simplesmente deixar os Elea em paz?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bem-vindo à minha loja!  
-Temos a melhor seleção de mercadorias!  
-Administrar uma loja dá muito trabalho!  
-Eu mesmo posso lidar com bandidos. Temos que ser fortes.  
-Entre. Dê uma olhada mais de perto nos meus produtos.  
-Tenho confiança na minha variedade de mercadorias.  
-Veja nossa excelente seleção.  
-Sinto que o mundo está ficando cada vez mais perigoso.  
-Não posso te oferecer um preço justo se suas armas e armaduras não estiverem totalmente identificadas.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">É nosso dever proteger os cidadãos.  
-Reporte a mim se vir alguém suspeito.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Seu dinheiro é mais importante do que qualquer outra coisa.  
 Há coisas que o dinheiro não pode comprar.  
 Bem-vindo ao nosso banco!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">He he he. Acho que tenho exatamente o que você precisa.  
-Não me olhe assim.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ei, delicia, quer relaxar um pouco? Vou te fazer sonhar a noite toda  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#me parece entediado.)  
-(#me lança um olhar para você e recua um passo.)  </t>
   </si>
   <si>
     <t xml:space="preserve">Dizem que caudas de coelho trazem boa sorte para quem as come.  
@@ -1804,7 +1733,90 @@
 Se você tiver a habilidade de natação, poderá atravessar para outro continente nadando.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Um anel de dedo extra é inútil se não for encantado.  
+    <t xml:space="preserve">Você pode falar com minha secretária se precisar de documentos.  
+O que você quer? Estou bastante ocupado.  
+Investimentos na cidade são sempre bem-vindos.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gostaria de investir na cidade?  
+Como posso servi-lo hoje?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não tenho nada para fazer. 
+Hã? O que você quer?  
+Você é um aventureiro, certo? Alguma novidade?  
+A Liga Eterna? Nunca ouvi falar.  
+Nada supera uma boa e velha cerveja depois do trabalho.  
+Gatos... Por que eles são tão fofos?  
+#aka? Nunca ouvi falar de você.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu gosto muito de economia.  
+De qualquer forma, dinheiro é o mais importante nesse mundo.
+Você tem boas ideias de investimento?  
+Moedas de platina são muito mais raras que as de ouro. Gaste-as com sabedoria.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gosto de falar sobre ciência.  
+A ciência em Eyth Terre era muito mais avançada que a nossa.  
+Em Eyth Terre, magia e ciência eram consideradas opostas.  
+Dizem que bonecos mecânicos estão fazendo o trabalho dos humanos no Novo Reino de Yerl.  </t>
+  </si>
+  <si>
+    <t>Gosto de viajar, já estive em muitos lugares.  
+Lumiest é a famosa cidade da arte.  
+As terras de North Tyris têm inúmeras ruínas e masmorras. Elas são chamadas de ruínas de Nefia.  
+Se for viajar, é bom levar bastante comida consigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenho interesse na situação mundial.  
+Euderna é um poderoso império nos desertos do continente oriental.  
+Dizem que o Novo Reino de Yerl foi fundado por escravos que fugiram do império.  
+Zanan é um antigo reino que valoriza a história e a honra, mas aparentemente é um fantoche do império.  </t>
+  </si>
+  <si>
+    <t>Os Elea tentaram nos abandonar à própria sorte durante a Guerra dos Dez Anos.  
+Chegou a hora de nós, humanos, prosperarmos.  
+Não precisamos mais da ajuda dos Elea.  
+As florestas onde os Elea vivem deveriam ser todas queimadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os humanos precisam ser mais humildes. Devem respeitar as raças antigas.
+Antigamente, os humanos chamavam os Elea de mães.  
+O povo das antigas florestas não gosta de lutar. Eles não querem Parece que o povo da floresta não quer interferir e nem ser incomodado.  
+Por que não podemos simplesmente deixar os Elea em paz?  </t>
+  </si>
+  <si>
+    <t>Bem-vindo. Dê uma olhada com calma.
+Tenho confiança nos produtos que vendo.
+Gerenciar uma loja não é nada fácil.
+Se não for forte o bastante pra espantar bandidos, não dá pra ser dono de loja.
+Em outras lojas, é bom tomar cuidado pra não ser passado pra trás.
+Já tenho alguém escolhido para herdar a loja quando for preciso.
+Vamos lá, veja meus produtos com orgulho.
+Ultimamente tem aparecido muita gente perigosa, tá difícil.
+Armas e armaduras só são bem compradas se forem devidamente avaliadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O trabalho da guarda é proteger a segurança dos cidadãos.  
+Se vir alguém suspeito, avise.  </t>
+  </si>
+  <si>
+    <t>Ah~ meu bem, que #gender encantador{だ}。Deixe-me te dar um sonho inesquecível esta noite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você também não parece ser flor que se cheire, hein.
+Não me olhe assim.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#me parece entediado.)  
+(#me lançou um olhar e virou o rosto.)  </t>
+  </si>
+  <si>
+    <t>Um anel de dedo extra é inútil se não for encantado.  
 Um cajado pode recarregar se você deixá-lo no chão por um tempo.  
 Não sabe o que desejar? Experimente "artefato secreto de Milas".  
 Gemas podem ser trocadas por moedas de platina.  
@@ -1814,31 +1826,7 @@
 Se você gritar 'Guardas!' na janela de chat, eles podem vir ajudá-lo rapidamente.  
 Há um jeito de fazer um Deus seu mascote.  
 Assassinos de jogadores aguardam você ao entrar nos Moongates.  
-Oh, que pena. Odeio dizer isso, mas quem ler esta profecia *será* amaldiçoado.  
-Fique de olho! Cuidado! A-Ali, sua irmã mais nova! Corra!  
-Nyo BUMP-BUMP para você!  
-O jogo não pôde escolher previsões válidas, pois seu jogo salvo está corrompido.  
-Dizem que matar gatos traz azar.  
-Os guardas ficarão felizes se você atacá-los nu.  
-Dizem que existe um artefato supremo exclusivo para suas irmãs mais novas.  
-Um rancho perto de Derphy pode ser altamente lucrativo.  
-O imposto será reduzido se seu carma for alto.  
-Os lojistas pagarão mais por cocô de monstro mais pesado.  
-Beber poções de cura amaldiçoadas às vezes deixa você doente.  
-Você *deveria* abençoar o sangue de Hermes antes de bebê-lo!  
-Seria realmente ruim se algo desse errado ao lançar o feitiço de retorno.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você pode falar com minha secretária se precisar de documentos.  
-O que você quer? Estou bastante ocupado.  
-Investimentos na cidade são sempre bem-vindos.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gostaria de investir na cidade?  
-Como posso servi-lo hoje?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+Oh, que pena. Odeio dizer isso, mas q+B19+B21+B19+B21</t>
   </si>
 </sst>
 </file>
@@ -3036,16 +3024,16 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="122.7109375" style="4" customWidth="1"/>
   </cols>
@@ -3078,7 +3066,7 @@
         <v>219</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>220</v>
@@ -3092,7 +3080,7 @@
         <v>222</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>223</v>
@@ -3106,7 +3094,7 @@
         <v>225</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>226</v>
@@ -3120,7 +3108,7 @@
         <v>228</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>229</v>
@@ -3134,7 +3122,7 @@
         <v>231</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>232</v>
@@ -3148,7 +3136,7 @@
         <v>234</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>235</v>
@@ -3162,7 +3150,7 @@
         <v>237</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>238</v>
@@ -3171,12 +3159,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="99">
+    <row r="12" spans="1:4" ht="115.5">
       <c r="A12" s="4" t="s">
         <v>240</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>241</v>
@@ -3185,12 +3173,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="165">
+    <row r="13" spans="1:4" ht="181.5">
       <c r="A13" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>244</v>
@@ -3204,7 +3192,7 @@
         <v>246</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>247</v>
@@ -3218,7 +3206,7 @@
         <v>249</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>250</v>
@@ -3232,7 +3220,7 @@
         <v>252</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>253</v>
@@ -3246,7 +3234,7 @@
         <v>255</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>256</v>
@@ -3260,7 +3248,7 @@
         <v>258</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>259</v>
@@ -3269,12 +3257,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="409.5">
+    <row r="19" spans="1:4" ht="346.5">
       <c r="A19" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>262</v>
@@ -3288,7 +3276,7 @@
         <v>264</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>265</v>
@@ -3297,12 +3285,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="409.5">
+    <row r="21" spans="1:4" ht="379.5">
       <c r="A21" s="4" t="s">
         <v>267</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>268</v>
@@ -3316,7 +3304,7 @@
         <v>270</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>271</v>
@@ -3330,7 +3318,7 @@
         <v>273</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>274</v>
@@ -3341,7 +3329,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="4" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
